--- a/sub/saif/py.xlsx
+++ b/sub/saif/py.xlsx
@@ -260,13 +260,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="12.63" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="12.63" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="26" min="1" style="4" width="7.63"/>
   </cols>
@@ -302,9 +302,14 @@
           <t>03/03/20</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="0" t="inlineStr">
         <is>
           <t>13/03/20</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>23/03/20</t>
         </is>
       </c>
     </row>
@@ -337,9 +342,14 @@
           <t>Absent</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="0" t="inlineStr">
         <is>
           <t>Absent</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>p</t>
         </is>
       </c>
     </row>
@@ -372,9 +382,14 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="0" t="inlineStr">
         <is>
           <t>P</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>a</t>
         </is>
       </c>
     </row>
@@ -402,44 +417,49 @@
           <t>Absent</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="0" t="inlineStr">
         <is>
           <t>A</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>p</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>Ram</t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
+          <t>Rajesh</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="F5" s="0" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>P</t>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>p</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>Rajesh</t>
+          <t>Vikas</t>
         </is>
       </c>
       <c r="F6" s="0" t="inlineStr">
@@ -447,44 +467,44 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>R</t>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>Ah</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>a</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>Vikas</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
+          <t>Ramesh</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Ah</t>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>p</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="n">
+      <c r="A8" t="n">
         <v>8</v>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>Ramesh</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Present</t>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dev</t>
         </is>
       </c>
     </row>
